--- a/magoosh.xlsx
+++ b/magoosh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="4600" yWindow="460" windowWidth="25600" windowHeight="12080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>hail</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,394 @@
   </si>
   <si>
     <t>neglignet,not doing one`s duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paucity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enough of something,the required or necessary amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lack of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rancid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smell badly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weariness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contemplativeness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tranquility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serenity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiredness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoughtfulness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peace 平静，平和</t>
+    <rPh sb="6" eb="7">
+      <t>ping'jing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ping'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrevocably</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peripherally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot be chaned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>located on the side; of secondary importance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unseasoned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amateur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autonomously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>existing or acting separately from other things or people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.突袭；侵略；冒险  v.袭击，劫掠</t>
+    <rPh sb="2" eb="3">
+      <t>tu'xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qin'lue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mao'xian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xi'ji</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie'lue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baffled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perplexed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cautious, careful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calumny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commensurate with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an untrue statement that is made to damage someones reputation</t>
+  </si>
+  <si>
+    <t>alse:the act of making such statements</t>
+  </si>
+  <si>
+    <t>a person who writes a nespaper or magazine column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v.  侮辱，诽谤</t>
+    <rPh sb="7" eb="8">
+      <t>wu'ru</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fei'bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe the relationship between two thing,in which when one increases the other increases,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or when one decreases the other decreases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ardor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.狂热，热情</t>
+    <rPh sb="2" eb="3">
+      <t>kuang're</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>re'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insinuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to suggest, ofen in a presumptuous(too confident especially in a way that is rude) manner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnanimous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aloof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hopeless and can be used to describe the situation but not the message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elaborate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to cause(a word,name,message,etc) be unclear or confusing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autodidact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miscreant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renegade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>law-breaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a self-taught person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capitulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonanza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necropolis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudden wealth; 富矿脉</t>
+    <rPh sb="15" eb="16">
+      <t>fu'kuang'mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graveyard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.背叛</t>
+    <rPh sb="2" eb="3">
+      <t>bei'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonstrable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indeterminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hushed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambivalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have mixed emotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showing or having a lot of respect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical: not causing death or serious injury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>without cancer:not cancerous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not causing harm or damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.not able to be started or described in an exact way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.able to be proven or shown:possible to demonstrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. a place where you are protected from danger,trouble,etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.（有条件的）投降； 概要； 协议； 一系列条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.friendly and easy to talk to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.of a person:very serious,unhappy,and quiety; very sad or unhappy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.having or showing a generous(慷慨) and kind nature</t>
+    <rPh sb="33" eb="34">
+      <t>kang'kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.冷淡的； 疏远的； 远离的；adv.分开地； 避开地；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,15 +794,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A40" zoomScale="156" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -468,6 +856,362 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/magoosh.xlsx
+++ b/magoosh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="460" windowWidth="25600" windowHeight="12080" tabRatio="500"/>
+    <workbookView xWindow="14500" yWindow="1240" windowWidth="12420" windowHeight="12080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
   <si>
     <t>hail</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hopeless and can be used to describe the situation but not the message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>elaborate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,6 +463,152 @@
   </si>
   <si>
     <t>adj.冷淡的； 疏远的； 远离的；adv.分开地； 避开地；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unviable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not working out successfully,unfeasible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingenious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peripatetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel around on foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penurious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have no money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itinerant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair/balanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evenhanded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contingent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conterminous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lacking any hope and can be used to describe the situation but not the message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lacking any hope or cheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cogent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relate to an argument that is persuasive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irascible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugnacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggressive and hostile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irritated by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ineffable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.妙不可言的</t>
+    <rPh sb="4" eb="5">
+      <t>miao'bu'ke'yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winsome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attractive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>celerity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed ,swiftness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fecklessness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semblance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outward appearance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idleness(not having any real purpose or value)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A40" zoomScale="156" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" zoomScale="156" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,15 +1183,15 @@
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1057,7 +1199,7 @@
         <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1065,7 +1207,7 @@
         <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1073,145 +1215,288 @@
         <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/magoosh.xlsx
+++ b/magoosh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="1240" windowWidth="12420" windowHeight="12080" tabRatio="500"/>
+    <workbookView xWindow="13300" yWindow="1200" windowWidth="19820" windowHeight="12080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="305">
   <si>
     <t>hail</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,699 @@
   </si>
   <si>
     <t>idleness(not having any real purpose or value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pervasive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in-born</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>widespread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malleable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capable of being stretched or bent into different shapes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capable of being easily changed or influenced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elegant and fashionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underwhelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to fail to impress or stimulate</t>
+  </si>
+  <si>
+    <t>meek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timid 胆小的</t>
+    <rPh sb="6" eb="7">
+      <t>dan'xiao'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plucky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirited， brave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freedom of action or choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embodiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.体现； 化身； 具体化；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temerity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lack of caution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extremely bad or severe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. great and impressive beauty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.to move back or bend your body down because you are afraid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. to show signs of anger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rehash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>present sth as new that is not very different from its previous form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a summary of a larger work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假笑，傻笑</t>
+    <rPh sb="0" eb="1">
+      <t>jia'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sha'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽的</t>
+    <rPh sb="0" eb="1">
+      <t>chao'feng'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>derogative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insidious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> causing harm in a way that is gradual or not easily noticed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affinity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a liking for or an attraction to something</t>
+  </si>
+  <si>
+    <t>curative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>able to cure diseases or heal people</t>
+  </si>
+  <si>
+    <t>repel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contemptuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.击退； 使厌恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look down upon others in a hateful way；disdain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruct in a positive way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.嗡嗡叫； 嗡嗡响； 絮絮叨叨地说；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedantic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.卖弄学问的； 学究式的，迂腐的；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to cause (someone) to become interested</t>
+  </si>
+  <si>
+    <t>incense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to make (someone) very angry</t>
+  </si>
+  <si>
+    <t>trope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a word, phrase, or image used in a new and different way in order to create an artistic effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diminutive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. very small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.a word or suffix that indicates that something is small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counteract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work against sth so as to neutralize it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">heyday </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summit or prime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precipitous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tentative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irreparable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too bad to be corrected or repaired</t>
+  </si>
+  <si>
+    <t>uncertain and hesitant；still able to be changed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blanch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to complain about things that are not important</t>
+  </si>
+  <si>
+    <t>to put (food items) in boiling water or steam for a short time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o suddenly have less color in your face because you are afraid, embarrassed, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to smile happily</t>
+  </si>
+  <si>
+    <t>incendiary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containing chemicals that explode into flame : producing a fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>causing anger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raconteur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maverick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>independent thinker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyteller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regale…with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to entertain or amuse (someone) by telling stories, describing experiences, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promulgate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announce and make widely known</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categorically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squelch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>said in a very strong, clear, and definite way</t>
+  </si>
+  <si>
+    <t>to stop (something) from continuing by doing or saying something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to cause or try to cause the growth or development of (something bad or harmful)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.冒险 n.危险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.抑制；（使）窒息， 遮掩； </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vitriol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>civility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harsh and angry words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polite, reasonable, and respectful behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chagrin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frustrated or annoyed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recrimination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accusation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cornucopia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissemination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a great amount or source of something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> to cause  sth to go to many people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.清除，（使）净化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprehensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thorough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apolitical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not political</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalitarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rococo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heavily embellished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>austere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lack of embellishment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独裁的</t>
+    <rPh sb="0" eb="1">
+      <t>du'cai'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reprisal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act carried out in revenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispersal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">to go or move in different directions </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a certain amount or quality of sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an instance of sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rumor or false report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finagle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.效用，利益；v. 有益于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to get sth in a clever or dishonest way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfunctory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.敷衍的；肤浅的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scathe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>censore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentally sharp or clever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability to notice and understand things clearly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易变的，不稳定的；易挥发的；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.审查 n.审查员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precarious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrepit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refuse to do sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virulent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harmful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>litigious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not safe, strong, or steady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>having rain and storms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old and in bad condition or poor health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causing laughter </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tending or likely to engage in lawsuits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inimical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsequious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谄媚的；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">likely to cause damage or have a bad effect </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not friendly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.使习惯（于）；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" zoomScale="156" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A148" zoomScale="156" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1495,8 +2188,699 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>25</v>
+      <c r="A72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/magoosh.xlsx
+++ b/magoosh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13300" yWindow="1200" windowWidth="19820" windowHeight="12080" tabRatio="500"/>
+    <workbookView xWindow="17020" yWindow="2160" windowWidth="19820" windowHeight="12080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="425">
   <si>
     <t>hail</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1302,6 +1302,497 @@
   </si>
   <si>
     <t>vt.使习惯（于）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>civilly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hastily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brusquely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punctiliously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act kindly to others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done without much thought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简洁的 and connotes a sense of rudeness</t>
+    <rPh sb="0" eb="1">
+      <t>jian'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fussy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>great in number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoroughgoing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absolute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scraped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chivalrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe a man who treats woman courteously(有礼貌地)</t>
+    <rPh sb="44" eb="45">
+      <t>you'li'mao</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perennial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protracted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sth that occurs over seasons and is constant thoughout years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lengthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despairing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pessimistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lacking hope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumbrously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponderously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enthusiastic vigor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connote a sense of clumsiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move with great difficulty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stultify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spurn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit in growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject ,snub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plodding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sadistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tedious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to proceed slowly or tediously</t>
+  </si>
+  <si>
+    <t>heinous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genuine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disarming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spartan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismissal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marginalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treat someone as inferior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoodwink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gather up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronounced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obvious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mettlesome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obstreperous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to disturb other people aggressively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copping well and resilient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intruding in other people`s affairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noisy and uncontrollable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meddlesome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeliness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verisimilitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persnickety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fussy and fastidious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wayward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>willfy difficult to control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retroactively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inchoate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oblivious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halcyon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calm and  pleasant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reluctant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obdurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stubborn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sth negative is going to happen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanguard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>straitened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egomaniac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reactionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perpetuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concoct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abrogate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promulgate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicly declare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forthwith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behoove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crestfallen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dumbfounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epigrammatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utterance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apothegm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piercing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consummate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modicum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semblance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wherewithal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urbanity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ineptitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>litanies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long tedious account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rant </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speak angrily at length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make sth holy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloviate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speak in a pompous manner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1629,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A148" zoomScale="156" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A224" zoomScale="156" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2883,6 +3374,549 @@
         <v>301</v>
       </c>
     </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B2"/>
